--- a/Google_trends/Google_trends.xlsx
+++ b/Google_trends/Google_trends.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tal/Documents/haifa/הצעת מחקר/article_1/Google_trends/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tal/Documents/GitHub/Jellyfish_DF/Google_trends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB8A4D-7F5C-B441-B234-E01A7CEB72CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E3E59-ADD6-4544-B8CF-3E4A08584251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14400" xr2:uid="{2C20EE0F-778C-214F-A31E-6B88859AFB29}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="googleTrends" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">googleTrends!$B$1:$B$730</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">googleTrends!$A$1:$B$730</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">googleTrends!$B$1:$B$729</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">googleTrends!$A$1:$B$729</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,18 +48,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>hit count</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>google trends</t>
   </si>
 </sst>
 </file>
@@ -67,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,7 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -108,7 +102,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,11 +119,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{396D1377-6609-4D44-BB81-7D5FE0C1BC51}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="32" unboundColumnsLeft="1" unboundColumnsRight="1">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="32" unboundColumnsLeft="1">
+    <queryTableFields count="2">
       <queryTableField id="28" dataBound="0" tableColumnId="6"/>
       <queryTableField id="4" name="_2" tableColumnId="4"/>
-      <queryTableField id="26" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
     <queryTableDeletedFields count="21">
       <deletedField name="Column1"/>
@@ -159,12 +152,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0393473C-09AC-9446-BC76-ED137D4416AA}" name="googleTrends8" displayName="googleTrends8" ref="A1:C730" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C730" xr:uid="{9881E434-BD10-AB47-9C86-88C6A01BA6FB}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0393473C-09AC-9446-BC76-ED137D4416AA}" name="googleTrends8" displayName="googleTrends8" ref="A1:B729" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B729" xr:uid="{9881E434-BD10-AB47-9C86-88C6A01BA6FB}"/>
+  <tableColumns count="2">
     <tableColumn id="6" xr3:uid="{CABC7372-9327-2B46-8091-473C39A6D042}" uniqueName="6" name="date" queryTableFieldId="28" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{F911B624-091F-8544-812C-D4E19A2C84EE}" uniqueName="4" name="hit count" queryTableFieldId="4"/>
-    <tableColumn id="3" xr3:uid="{95B906B3-7F6B-184F-A4D8-5777D606F282}" uniqueName="3" name="platform" queryTableFieldId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,8163 +459,5966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E467292-B080-4945-9857-3CA63C5DD8D8}">
-  <dimension ref="A1:R730"/>
+  <dimension ref="A1:Q729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="A729" sqref="A729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>39820</v>
       </c>
       <c r="B2">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>39827</v>
       </c>
       <c r="B3">
         <v>143</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>39834</v>
       </c>
       <c r="B4">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>39841</v>
       </c>
       <c r="B5">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>39848</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39855</v>
       </c>
       <c r="B7">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>39862</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39869</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>39876</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>39883</v>
       </c>
       <c r="B11">
         <v>170</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>39890</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39897</v>
       </c>
       <c r="B13">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39904</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39911</v>
       </c>
       <c r="B15">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39918</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>39925</v>
       </c>
       <c r="B17">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39932</v>
       </c>
       <c r="B18">
         <v>81</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39939</v>
       </c>
       <c r="B19">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>39946</v>
       </c>
       <c r="B20">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>39953</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>39960</v>
       </c>
       <c r="B22">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>39967</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>39974</v>
       </c>
       <c r="B24">
         <v>114</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>39981</v>
       </c>
       <c r="B25">
         <v>192</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>39988</v>
       </c>
       <c r="B26">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39995</v>
       </c>
       <c r="B27">
         <v>171</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40002</v>
       </c>
       <c r="B28">
         <v>215</v>
       </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40009</v>
       </c>
       <c r="B29">
         <v>145</v>
       </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40016</v>
       </c>
       <c r="B30">
         <v>41</v>
       </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40023</v>
       </c>
       <c r="B31">
         <v>57</v>
       </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
       <c r="B32">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40037</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40044</v>
       </c>
       <c r="B34">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40051</v>
       </c>
       <c r="B35">
         <v>26</v>
       </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40058</v>
       </c>
       <c r="B36">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40065</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40072</v>
       </c>
       <c r="B38">
         <v>31</v>
       </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40079</v>
       </c>
       <c r="B39">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40086</v>
       </c>
       <c r="B40">
         <v>123</v>
       </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40093</v>
       </c>
       <c r="B41">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40100</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40107</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40114</v>
       </c>
       <c r="B44">
         <v>29</v>
       </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40121</v>
       </c>
       <c r="B45">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40128</v>
       </c>
       <c r="B46">
         <v>78</v>
       </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40135</v>
       </c>
       <c r="B47">
         <v>83</v>
       </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40142</v>
       </c>
       <c r="B48">
         <v>41</v>
       </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40149</v>
       </c>
       <c r="B49">
         <v>54</v>
       </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40156</v>
       </c>
       <c r="B50">
         <v>75</v>
       </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40163</v>
       </c>
       <c r="B51">
         <v>67</v>
       </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40170</v>
       </c>
       <c r="B52">
         <v>37</v>
       </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40177</v>
       </c>
       <c r="B53">
         <v>55</v>
       </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>40185</v>
       </c>
       <c r="B54">
         <v>37</v>
       </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40192</v>
       </c>
       <c r="B55">
         <v>128</v>
       </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>40199</v>
       </c>
       <c r="B56">
         <v>31</v>
       </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40206</v>
       </c>
       <c r="B57">
         <v>64</v>
       </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>40213</v>
       </c>
       <c r="B58">
         <v>13</v>
       </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40220</v>
       </c>
       <c r="B59">
         <v>29</v>
       </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>40227</v>
       </c>
       <c r="B60">
         <v>110</v>
       </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>40234</v>
       </c>
       <c r="B61">
         <v>34</v>
       </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>40241</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>40248</v>
       </c>
       <c r="B63">
         <v>27</v>
       </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>40255</v>
       </c>
       <c r="B64">
         <v>37</v>
       </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>40262</v>
       </c>
       <c r="B65">
         <v>50</v>
       </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>40269</v>
       </c>
       <c r="B66">
         <v>158</v>
       </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>40276</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>40283</v>
       </c>
       <c r="B68">
         <v>34</v>
       </c>
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>40290</v>
       </c>
       <c r="B69">
         <v>40</v>
       </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>40297</v>
       </c>
       <c r="B70">
         <v>100</v>
       </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>40304</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>40311</v>
       </c>
       <c r="B72">
         <v>23</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>40318</v>
       </c>
       <c r="B73">
         <v>37</v>
       </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>40325</v>
       </c>
       <c r="B74">
         <v>103</v>
       </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>40332</v>
       </c>
       <c r="B75">
         <v>95</v>
       </c>
-      <c r="C75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>40339</v>
       </c>
       <c r="B76">
         <v>37</v>
       </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>40346</v>
       </c>
       <c r="B77">
         <v>192</v>
       </c>
-      <c r="C77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>40353</v>
       </c>
       <c r="B78">
         <v>186</v>
       </c>
-      <c r="C78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>40360</v>
       </c>
       <c r="B79">
         <v>146</v>
       </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>40367</v>
       </c>
       <c r="B80">
         <v>177</v>
       </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>40374</v>
       </c>
       <c r="B81">
         <v>132</v>
       </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>40381</v>
       </c>
       <c r="B82">
         <v>53</v>
       </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>40388</v>
       </c>
       <c r="B83">
         <v>34</v>
       </c>
-      <c r="C83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>40395</v>
       </c>
       <c r="B84">
         <v>34</v>
       </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>40402</v>
       </c>
       <c r="B85">
         <v>21</v>
       </c>
-      <c r="C85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>40409</v>
       </c>
       <c r="B86">
         <v>22</v>
       </c>
-      <c r="C86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>40416</v>
       </c>
       <c r="B87">
         <v>20</v>
       </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>40423</v>
       </c>
       <c r="B88">
         <v>38</v>
       </c>
-      <c r="C88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>40430</v>
       </c>
       <c r="B89">
         <v>19</v>
       </c>
-      <c r="C89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>40437</v>
       </c>
       <c r="B90">
         <v>60</v>
       </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>40444</v>
       </c>
       <c r="B91">
         <v>126</v>
       </c>
-      <c r="C91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>40451</v>
       </c>
       <c r="B92">
         <v>108</v>
       </c>
-      <c r="C92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>40458</v>
       </c>
       <c r="B93">
         <v>23</v>
       </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>40465</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>40472</v>
       </c>
       <c r="B95">
         <v>51</v>
       </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>40479</v>
       </c>
       <c r="B96">
         <v>61</v>
       </c>
-      <c r="C96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>40486</v>
       </c>
       <c r="B97">
         <v>39</v>
       </c>
-      <c r="C97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>40493</v>
       </c>
       <c r="B98">
         <v>35</v>
       </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>40500</v>
       </c>
       <c r="B99">
         <v>36</v>
       </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>40507</v>
       </c>
       <c r="B100">
         <v>83</v>
       </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>40514</v>
       </c>
       <c r="B101">
         <v>64</v>
       </c>
-      <c r="C101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>40521</v>
       </c>
       <c r="B102">
         <v>11</v>
       </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>40528</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
-      <c r="C103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>40535</v>
       </c>
       <c r="B104">
         <v>31</v>
       </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>40542</v>
       </c>
       <c r="B105">
         <v>53</v>
       </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>40550</v>
       </c>
       <c r="B106">
         <v>68</v>
       </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>40557</v>
       </c>
       <c r="B107">
         <v>14</v>
       </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>40564</v>
       </c>
       <c r="B108">
         <v>57</v>
       </c>
-      <c r="C108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>40571</v>
       </c>
       <c r="B109">
         <v>20</v>
       </c>
-      <c r="C109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>40578</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>40585</v>
       </c>
       <c r="B111">
         <v>52</v>
       </c>
-      <c r="C111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>40592</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>40599</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
-      <c r="C113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>40606</v>
       </c>
       <c r="B114">
         <v>14</v>
       </c>
-      <c r="C114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>40613</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
-      <c r="C115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>40620</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40627</v>
       </c>
       <c r="B117">
         <v>86</v>
       </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40634</v>
       </c>
       <c r="B118">
         <v>23</v>
       </c>
-      <c r="C118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40641</v>
       </c>
       <c r="B119">
         <v>9</v>
       </c>
-      <c r="C119" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119">
+      <c r="C119">
         <f>COUNTIF(B106:B729,"&gt;0")</f>
         <v>615</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40648</v>
       </c>
       <c r="B120">
         <v>5</v>
       </c>
-      <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120">
+      <c r="C120">
         <v>624</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40655</v>
       </c>
       <c r="B121">
         <v>5</v>
       </c>
-      <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121">
-        <f>(D119/D120)*100</f>
+      <c r="C121">
+        <f>(C119/C120)*100</f>
         <v>98.557692307692307</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40662</v>
       </c>
       <c r="B122">
         <v>29</v>
       </c>
-      <c r="C122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40669</v>
       </c>
       <c r="B123">
         <v>19</v>
       </c>
-      <c r="C123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40676</v>
       </c>
       <c r="B124">
         <v>28</v>
       </c>
-      <c r="C124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40683</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40690</v>
       </c>
       <c r="B126">
         <v>24</v>
       </c>
-      <c r="C126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40697</v>
       </c>
       <c r="B127">
         <v>61</v>
       </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40704</v>
       </c>
       <c r="B128">
         <v>21</v>
       </c>
-      <c r="C128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40711</v>
       </c>
       <c r="B129">
         <v>82</v>
       </c>
-      <c r="C129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40718</v>
       </c>
       <c r="B130">
         <v>155</v>
       </c>
-      <c r="C130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40725</v>
       </c>
       <c r="B131">
         <v>135</v>
       </c>
-      <c r="C131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40732</v>
       </c>
       <c r="B132">
         <v>194</v>
       </c>
-      <c r="C132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40739</v>
       </c>
       <c r="B133">
         <v>147</v>
       </c>
-      <c r="C133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40746</v>
       </c>
       <c r="B134">
         <v>185</v>
       </c>
-      <c r="C134" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40753</v>
       </c>
       <c r="B135">
         <v>122</v>
       </c>
-      <c r="C135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40760</v>
       </c>
       <c r="B136">
         <v>106</v>
       </c>
-      <c r="C136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40767</v>
       </c>
       <c r="B137">
         <v>12</v>
       </c>
-      <c r="C137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40774</v>
       </c>
       <c r="B138">
         <v>22</v>
       </c>
-      <c r="C138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40781</v>
       </c>
       <c r="B139">
         <v>23</v>
       </c>
-      <c r="C139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40788</v>
       </c>
       <c r="B140">
         <v>102</v>
       </c>
-      <c r="C140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40795</v>
       </c>
       <c r="B141">
         <v>41</v>
       </c>
-      <c r="C141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40802</v>
       </c>
       <c r="B142">
         <v>39</v>
       </c>
-      <c r="C142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40809</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40816</v>
       </c>
       <c r="B144">
         <v>44</v>
       </c>
-      <c r="C144" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40823</v>
       </c>
       <c r="B145">
         <v>52</v>
       </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40830</v>
       </c>
       <c r="B146">
         <v>45</v>
       </c>
-      <c r="C146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40837</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
-      <c r="C147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40844</v>
       </c>
       <c r="B148">
         <v>38</v>
       </c>
-      <c r="C148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>40851</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>40858</v>
       </c>
       <c r="B150">
         <v>65</v>
       </c>
-      <c r="C150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>40865</v>
       </c>
       <c r="B151">
         <v>11</v>
       </c>
-      <c r="C151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>40872</v>
       </c>
       <c r="B152">
         <v>110</v>
       </c>
-      <c r="C152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>40879</v>
       </c>
       <c r="B153">
         <v>27</v>
       </c>
-      <c r="C153" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>40886</v>
       </c>
       <c r="B154">
         <v>5</v>
       </c>
-      <c r="C154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>40893</v>
       </c>
       <c r="B155">
         <v>24</v>
       </c>
-      <c r="C155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>40900</v>
       </c>
       <c r="B156">
         <v>9</v>
       </c>
-      <c r="C156" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>40907</v>
       </c>
       <c r="B157">
         <v>31</v>
       </c>
-      <c r="C157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>40915</v>
       </c>
       <c r="B158">
         <v>21</v>
       </c>
-      <c r="C158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40922</v>
       </c>
       <c r="B159">
         <v>30</v>
       </c>
-      <c r="C159" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>40929</v>
       </c>
       <c r="B160">
         <v>23</v>
       </c>
-      <c r="C160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40936</v>
       </c>
       <c r="B161">
         <v>13</v>
       </c>
-      <c r="C161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40943</v>
       </c>
       <c r="B162">
         <v>14</v>
       </c>
-      <c r="C162" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40950</v>
       </c>
       <c r="B163">
         <v>11</v>
       </c>
-      <c r="C163" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40957</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40964</v>
       </c>
       <c r="B165">
         <v>12</v>
       </c>
-      <c r="C165" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40972</v>
       </c>
       <c r="B166">
         <v>13</v>
       </c>
-      <c r="C166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40979</v>
       </c>
       <c r="B167">
         <v>51</v>
       </c>
-      <c r="C167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40986</v>
       </c>
       <c r="B168">
         <v>22</v>
       </c>
-      <c r="C168" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40993</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41000</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
-      <c r="C170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41007</v>
       </c>
       <c r="B171">
         <v>58</v>
       </c>
-      <c r="C171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41014</v>
       </c>
       <c r="B172">
         <v>10</v>
       </c>
-      <c r="C172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41021</v>
       </c>
       <c r="B173">
         <v>25</v>
       </c>
-      <c r="C173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41028</v>
       </c>
       <c r="B174">
         <v>69</v>
       </c>
-      <c r="C174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41035</v>
       </c>
       <c r="B175">
         <v>14</v>
       </c>
-      <c r="C175" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41042</v>
       </c>
       <c r="B176">
         <v>61</v>
       </c>
-      <c r="C176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41049</v>
       </c>
       <c r="B177">
         <v>16</v>
       </c>
-      <c r="C177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41056</v>
       </c>
       <c r="B178">
         <v>22</v>
       </c>
-      <c r="C178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41063</v>
       </c>
       <c r="B179">
         <v>29</v>
       </c>
-      <c r="C179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41070</v>
       </c>
       <c r="B180">
         <v>42</v>
       </c>
-      <c r="C180" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41077</v>
       </c>
       <c r="B181">
         <v>51</v>
       </c>
-      <c r="C181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41084</v>
       </c>
       <c r="B182">
         <v>49</v>
       </c>
-      <c r="C182" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41091</v>
       </c>
       <c r="B183">
         <v>139</v>
       </c>
-      <c r="C183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41098</v>
       </c>
       <c r="B184">
         <v>232</v>
       </c>
-      <c r="C184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41105</v>
       </c>
       <c r="B185">
         <v>223</v>
       </c>
-      <c r="C185" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41112</v>
       </c>
       <c r="B186">
         <v>243</v>
       </c>
-      <c r="C186" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41119</v>
       </c>
       <c r="B187">
         <v>171</v>
       </c>
-      <c r="C187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41126</v>
       </c>
       <c r="B188">
         <v>70</v>
       </c>
-      <c r="C188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41133</v>
       </c>
       <c r="B189">
         <v>44</v>
       </c>
-      <c r="C189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41140</v>
       </c>
       <c r="B190">
         <v>12</v>
       </c>
-      <c r="C190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41147</v>
       </c>
       <c r="B191">
         <v>30</v>
       </c>
-      <c r="C191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41154</v>
       </c>
       <c r="B192">
         <v>30</v>
       </c>
-      <c r="C192" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41161</v>
       </c>
       <c r="B193">
         <v>23</v>
       </c>
-      <c r="C193" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41168</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41175</v>
       </c>
       <c r="B195">
         <v>56</v>
       </c>
-      <c r="C195" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41182</v>
       </c>
       <c r="B196">
         <v>23</v>
       </c>
-      <c r="C196" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41189</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
-      <c r="C197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41196</v>
       </c>
       <c r="B198">
         <v>26</v>
       </c>
-      <c r="C198" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41203</v>
       </c>
       <c r="B199">
         <v>11</v>
       </c>
-      <c r="C199" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41210</v>
       </c>
       <c r="B200">
         <v>19</v>
       </c>
-      <c r="C200" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41217</v>
       </c>
       <c r="B201">
         <v>25</v>
       </c>
-      <c r="C201" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41224</v>
       </c>
       <c r="B202">
         <v>43</v>
       </c>
-      <c r="C202" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41231</v>
       </c>
       <c r="B203">
         <v>17</v>
       </c>
-      <c r="C203" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41238</v>
       </c>
       <c r="B204">
         <v>67</v>
       </c>
-      <c r="C204" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>41245</v>
       </c>
       <c r="B205">
         <v>27</v>
       </c>
-      <c r="C205" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>41252</v>
       </c>
       <c r="B206">
         <v>12</v>
       </c>
-      <c r="C206" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>41259</v>
       </c>
       <c r="B207">
         <v>31</v>
       </c>
-      <c r="C207" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>41266</v>
       </c>
       <c r="B208">
         <v>36</v>
       </c>
-      <c r="C208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>41273</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
-      <c r="C209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>41281</v>
       </c>
       <c r="B210">
         <v>7</v>
       </c>
-      <c r="C210" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>41288</v>
       </c>
       <c r="B211">
         <v>69</v>
       </c>
-      <c r="C211" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>41295</v>
       </c>
       <c r="B212">
         <v>13</v>
       </c>
-      <c r="C212" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>41302</v>
       </c>
       <c r="B213">
         <v>144</v>
       </c>
-      <c r="C213" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>41309</v>
       </c>
       <c r="B214">
         <v>49</v>
       </c>
-      <c r="C214" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>41316</v>
       </c>
       <c r="B215">
         <v>8</v>
       </c>
-      <c r="C215" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>41323</v>
       </c>
       <c r="B216">
         <v>46</v>
       </c>
-      <c r="C216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>41330</v>
       </c>
       <c r="B217">
         <v>40</v>
       </c>
-      <c r="C217" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>41337</v>
       </c>
       <c r="B218">
         <v>65</v>
       </c>
-      <c r="C218" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>41344</v>
       </c>
       <c r="B219">
         <v>63</v>
       </c>
-      <c r="C219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>41351</v>
       </c>
       <c r="B220">
         <v>53</v>
       </c>
-      <c r="C220" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>41358</v>
       </c>
       <c r="B221">
         <v>17</v>
       </c>
-      <c r="C221" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>41365</v>
       </c>
       <c r="B222">
         <v>5</v>
       </c>
-      <c r="C222" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>41372</v>
       </c>
       <c r="B223">
         <v>64</v>
       </c>
-      <c r="C223" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>41379</v>
       </c>
       <c r="B224">
         <v>106</v>
       </c>
-      <c r="C224" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>41386</v>
       </c>
       <c r="B225">
         <v>46</v>
       </c>
-      <c r="C225" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>41393</v>
       </c>
       <c r="B226">
         <v>50</v>
       </c>
-      <c r="C226" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>41400</v>
       </c>
       <c r="B227">
         <v>29</v>
       </c>
-      <c r="C227" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>41407</v>
       </c>
       <c r="B228">
         <v>61</v>
       </c>
-      <c r="C228" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>41414</v>
       </c>
       <c r="B229">
         <v>7</v>
       </c>
-      <c r="C229" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>41421</v>
       </c>
       <c r="B230">
         <v>106</v>
       </c>
-      <c r="C230" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>41428</v>
       </c>
       <c r="B231">
         <v>28</v>
       </c>
-      <c r="C231" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>41435</v>
       </c>
       <c r="B232">
         <v>73</v>
       </c>
-      <c r="C232" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>41442</v>
       </c>
       <c r="B233">
         <v>149</v>
       </c>
-      <c r="C233" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>41449</v>
       </c>
       <c r="B234">
         <v>91</v>
       </c>
-      <c r="C234" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>41456</v>
       </c>
       <c r="B235">
         <v>144</v>
       </c>
-      <c r="C235" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>41463</v>
       </c>
       <c r="B236">
         <v>236</v>
       </c>
-      <c r="C236" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>41470</v>
       </c>
       <c r="B237">
         <v>250</v>
       </c>
-      <c r="C237" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>41477</v>
       </c>
       <c r="B238">
         <v>208</v>
       </c>
-      <c r="C238" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>41484</v>
       </c>
       <c r="B239">
         <v>35</v>
       </c>
-      <c r="C239" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>41491</v>
       </c>
       <c r="B240">
         <v>21</v>
       </c>
-      <c r="C240" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>41498</v>
       </c>
       <c r="B241">
         <v>23</v>
       </c>
-      <c r="C241" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>41505</v>
       </c>
       <c r="B242">
         <v>46</v>
       </c>
-      <c r="C242" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>41512</v>
       </c>
       <c r="B243">
         <v>93</v>
       </c>
-      <c r="C243" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>41519</v>
       </c>
       <c r="B244">
         <v>25</v>
       </c>
-      <c r="C244" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>41526</v>
       </c>
       <c r="B245">
         <v>31</v>
       </c>
-      <c r="C245" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>41533</v>
       </c>
       <c r="B246">
         <v>30</v>
       </c>
-      <c r="C246" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>41540</v>
       </c>
       <c r="B247">
         <v>16</v>
       </c>
-      <c r="C247" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>41547</v>
       </c>
       <c r="B248">
         <v>10</v>
       </c>
-      <c r="C248" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>41554</v>
       </c>
       <c r="B249">
         <v>5</v>
       </c>
-      <c r="C249" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>41561</v>
       </c>
       <c r="B250">
         <v>157</v>
       </c>
-      <c r="C250" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>41568</v>
       </c>
       <c r="B251">
         <v>51</v>
       </c>
-      <c r="C251" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>41575</v>
       </c>
       <c r="B252">
         <v>4</v>
       </c>
-      <c r="C252" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>41582</v>
       </c>
       <c r="B253">
         <v>61</v>
       </c>
-      <c r="C253" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>41589</v>
       </c>
       <c r="B254">
         <v>6</v>
       </c>
-      <c r="C254" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>41596</v>
       </c>
       <c r="B255">
         <v>54</v>
       </c>
-      <c r="C255" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>41603</v>
       </c>
       <c r="B256">
         <v>65</v>
       </c>
-      <c r="C256" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>41610</v>
       </c>
       <c r="B257">
         <v>89</v>
       </c>
-      <c r="C257" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>41617</v>
       </c>
       <c r="B258">
         <v>13</v>
       </c>
-      <c r="C258" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>41624</v>
       </c>
       <c r="B259">
         <v>9</v>
       </c>
-      <c r="C259" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>41631</v>
       </c>
       <c r="B260">
         <v>9</v>
       </c>
-      <c r="C260" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>41638</v>
       </c>
       <c r="B261">
         <v>61</v>
       </c>
-      <c r="C261" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>41646</v>
       </c>
       <c r="B262">
         <v>37</v>
       </c>
-      <c r="C262" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>41653</v>
       </c>
       <c r="B263">
         <v>91</v>
       </c>
-      <c r="C263" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>41660</v>
       </c>
       <c r="B264">
         <v>70</v>
       </c>
-      <c r="C264" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>41667</v>
       </c>
       <c r="B265">
         <v>47</v>
       </c>
-      <c r="C265" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>41674</v>
       </c>
       <c r="B266">
         <v>102</v>
       </c>
-      <c r="C266" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>41681</v>
       </c>
       <c r="B267">
         <v>6</v>
       </c>
-      <c r="C267" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>41688</v>
       </c>
       <c r="B268">
         <v>26</v>
       </c>
-      <c r="C268" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41695</v>
       </c>
       <c r="B269">
         <v>59</v>
       </c>
-      <c r="C269" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41702</v>
       </c>
       <c r="B270">
         <v>33</v>
       </c>
-      <c r="C270" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41709</v>
       </c>
       <c r="B271">
         <v>16</v>
       </c>
-      <c r="C271" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41716</v>
       </c>
       <c r="B272">
         <v>127</v>
       </c>
-      <c r="C272" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41723</v>
       </c>
       <c r="B273">
         <v>46</v>
       </c>
-      <c r="C273" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>41730</v>
       </c>
       <c r="B274">
         <v>58</v>
       </c>
-      <c r="C274" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>41737</v>
       </c>
       <c r="B275">
         <v>88</v>
       </c>
-      <c r="C275" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>41744</v>
       </c>
       <c r="B276">
         <v>189</v>
       </c>
-      <c r="C276" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>41751</v>
       </c>
       <c r="B277">
         <v>123</v>
       </c>
-      <c r="C277" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>41758</v>
       </c>
       <c r="B278">
         <v>104</v>
       </c>
-      <c r="C278" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>41765</v>
       </c>
       <c r="B279">
         <v>59</v>
       </c>
-      <c r="C279" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>41772</v>
       </c>
       <c r="B280">
         <v>70</v>
       </c>
-      <c r="C280" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>41779</v>
       </c>
       <c r="B281">
         <v>69</v>
       </c>
-      <c r="C281" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>41786</v>
       </c>
       <c r="B282">
         <v>70</v>
       </c>
-      <c r="C282" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>41793</v>
       </c>
       <c r="B283">
         <v>10</v>
       </c>
-      <c r="C283" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>41800</v>
       </c>
       <c r="B284">
         <v>147</v>
       </c>
-      <c r="C284" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>41807</v>
       </c>
       <c r="B285">
         <v>90</v>
       </c>
-      <c r="C285" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>41814</v>
       </c>
       <c r="B286">
         <v>126</v>
       </c>
-      <c r="C286" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>41821</v>
       </c>
       <c r="B287">
         <v>236</v>
       </c>
-      <c r="C287" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>41828</v>
       </c>
       <c r="B288">
         <v>167</v>
       </c>
-      <c r="C288" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41835</v>
       </c>
       <c r="B289">
         <v>72</v>
       </c>
-      <c r="C289" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41842</v>
       </c>
       <c r="B290">
         <v>36</v>
       </c>
-      <c r="C290" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41849</v>
       </c>
       <c r="B291">
         <v>45</v>
       </c>
-      <c r="C291" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41856</v>
       </c>
       <c r="B292">
         <v>73</v>
       </c>
-      <c r="C292" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41863</v>
       </c>
       <c r="B293">
         <v>18</v>
       </c>
-      <c r="C293" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41870</v>
       </c>
       <c r="B294">
         <v>10</v>
       </c>
-      <c r="C294" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41877</v>
       </c>
       <c r="B295">
         <v>113</v>
       </c>
-      <c r="C295" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41884</v>
       </c>
       <c r="B296">
         <v>45</v>
       </c>
-      <c r="C296" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41891</v>
       </c>
       <c r="B297">
         <v>31</v>
       </c>
-      <c r="C297" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41898</v>
       </c>
       <c r="B298">
         <v>24</v>
       </c>
-      <c r="C298" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41905</v>
       </c>
       <c r="B299">
         <v>31</v>
       </c>
-      <c r="C299" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41912</v>
       </c>
       <c r="B300">
         <v>89</v>
       </c>
-      <c r="C300" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41919</v>
       </c>
       <c r="B301">
         <v>62</v>
       </c>
-      <c r="C301" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41926</v>
       </c>
       <c r="B302">
         <v>22</v>
       </c>
-      <c r="C302" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41933</v>
       </c>
       <c r="B303">
         <v>13</v>
       </c>
-      <c r="C303" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41940</v>
       </c>
       <c r="B304">
         <v>24</v>
       </c>
-      <c r="C304" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41947</v>
       </c>
       <c r="B305">
         <v>29</v>
       </c>
-      <c r="C305" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41954</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
-      <c r="C306" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41961</v>
       </c>
       <c r="B307">
         <v>62</v>
       </c>
-      <c r="C307" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41968</v>
       </c>
       <c r="B308">
         <v>20</v>
       </c>
-      <c r="C308" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41975</v>
       </c>
       <c r="B309">
         <v>53</v>
       </c>
-      <c r="C309" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41982</v>
       </c>
       <c r="B310">
         <v>33</v>
       </c>
-      <c r="C310" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41989</v>
       </c>
       <c r="B311">
         <v>27</v>
       </c>
-      <c r="C311" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41996</v>
       </c>
       <c r="B312">
         <v>26</v>
       </c>
-      <c r="C312" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>42003</v>
       </c>
       <c r="B313">
         <v>28</v>
       </c>
-      <c r="C313" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>42011</v>
       </c>
       <c r="B314">
         <v>8</v>
       </c>
-      <c r="C314" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>42018</v>
       </c>
       <c r="B315">
         <v>42</v>
       </c>
-      <c r="C315" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>42025</v>
       </c>
       <c r="B316">
         <v>12</v>
       </c>
-      <c r="C316" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>42032</v>
       </c>
       <c r="B317">
         <v>40</v>
       </c>
-      <c r="C317" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>42039</v>
       </c>
       <c r="B318">
         <v>27</v>
       </c>
-      <c r="C318" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>42046</v>
       </c>
       <c r="B319">
         <v>21</v>
       </c>
-      <c r="C319" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>42053</v>
       </c>
       <c r="B320">
         <v>12</v>
       </c>
-      <c r="C320" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>42060</v>
       </c>
       <c r="B321">
         <v>73</v>
       </c>
-      <c r="C321" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42067</v>
       </c>
       <c r="B322">
         <v>31</v>
       </c>
-      <c r="C322" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42074</v>
       </c>
       <c r="B323">
         <v>8</v>
       </c>
-      <c r="C323" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42081</v>
       </c>
       <c r="B324">
         <v>16</v>
       </c>
-      <c r="C324" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42088</v>
       </c>
       <c r="B325">
         <v>20</v>
       </c>
-      <c r="C325" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42095</v>
       </c>
       <c r="B326">
         <v>51</v>
       </c>
-      <c r="C326" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42102</v>
       </c>
       <c r="B327">
         <v>21</v>
       </c>
-      <c r="C327" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42109</v>
       </c>
       <c r="B328">
         <v>61</v>
       </c>
-      <c r="C328" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42116</v>
       </c>
       <c r="B329">
         <v>27</v>
       </c>
-      <c r="C329" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42123</v>
       </c>
       <c r="B330">
         <v>46</v>
       </c>
-      <c r="C330" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42130</v>
       </c>
       <c r="B331">
         <v>16</v>
       </c>
-      <c r="C331" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42137</v>
       </c>
       <c r="B332">
         <v>72</v>
       </c>
-      <c r="C332" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42144</v>
       </c>
       <c r="B333">
         <v>27</v>
       </c>
-      <c r="C333" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42151</v>
       </c>
       <c r="B334">
         <v>127</v>
       </c>
-      <c r="C334" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42158</v>
       </c>
       <c r="B335">
         <v>34</v>
       </c>
-      <c r="C335" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42165</v>
       </c>
       <c r="B336">
         <v>74</v>
       </c>
-      <c r="C336" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42172</v>
       </c>
       <c r="B337">
         <v>107</v>
       </c>
-      <c r="C337" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42179</v>
       </c>
       <c r="B338">
         <v>156</v>
       </c>
-      <c r="C338" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42186</v>
       </c>
       <c r="B339">
         <v>181</v>
       </c>
-      <c r="C339" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42193</v>
       </c>
       <c r="B340">
         <v>185</v>
       </c>
-      <c r="C340" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42200</v>
       </c>
       <c r="B341">
         <v>195</v>
       </c>
-      <c r="C341" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42207</v>
       </c>
       <c r="B342">
         <v>249</v>
       </c>
-      <c r="C342" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42214</v>
       </c>
       <c r="B343">
         <v>160</v>
       </c>
-      <c r="C343" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42221</v>
       </c>
       <c r="B344">
         <v>210</v>
       </c>
-      <c r="C344" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42228</v>
       </c>
       <c r="B345">
         <v>78</v>
       </c>
-      <c r="C345" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42235</v>
       </c>
       <c r="B346">
         <v>50</v>
       </c>
-      <c r="C346" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42242</v>
       </c>
       <c r="B347">
         <v>26</v>
       </c>
-      <c r="C347" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42249</v>
       </c>
       <c r="B348">
         <v>36</v>
       </c>
-      <c r="C348" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42256</v>
       </c>
       <c r="B349">
         <v>40</v>
       </c>
-      <c r="C349" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42263</v>
       </c>
       <c r="B350">
         <v>2</v>
       </c>
-      <c r="C350" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42270</v>
       </c>
       <c r="B351">
         <v>27</v>
       </c>
-      <c r="C351" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42277</v>
       </c>
       <c r="B352">
         <v>29</v>
       </c>
-      <c r="C352" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42284</v>
       </c>
       <c r="B353">
         <v>35</v>
       </c>
-      <c r="C353" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42291</v>
       </c>
       <c r="B354">
         <v>36</v>
       </c>
-      <c r="C354" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>42298</v>
       </c>
       <c r="B355">
         <v>5</v>
       </c>
-      <c r="C355" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>42305</v>
       </c>
       <c r="B356">
         <v>63</v>
       </c>
-      <c r="C356" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>42312</v>
       </c>
       <c r="B357">
         <v>39</v>
       </c>
-      <c r="C357" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>42319</v>
       </c>
       <c r="B358">
         <v>23</v>
       </c>
-      <c r="C358" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>42326</v>
       </c>
       <c r="B359">
         <v>8</v>
       </c>
-      <c r="C359" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>42333</v>
       </c>
       <c r="B360">
         <v>22</v>
       </c>
-      <c r="C360" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>42340</v>
       </c>
       <c r="B361">
         <v>8</v>
       </c>
-      <c r="C361" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>42347</v>
       </c>
       <c r="B362">
         <v>32</v>
       </c>
-      <c r="C362" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>42354</v>
       </c>
       <c r="B363">
         <v>38</v>
       </c>
-      <c r="C363" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>42361</v>
       </c>
       <c r="B364">
         <v>61</v>
       </c>
-      <c r="C364" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>42368</v>
       </c>
       <c r="B365">
         <v>30</v>
       </c>
-      <c r="C365" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>42376</v>
       </c>
       <c r="B366">
         <v>56</v>
       </c>
-      <c r="C366" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>42383</v>
       </c>
       <c r="B367">
         <v>9</v>
       </c>
-      <c r="C367" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>42390</v>
       </c>
       <c r="B368">
         <v>78</v>
       </c>
-      <c r="C368" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>42397</v>
       </c>
       <c r="B369">
         <v>38</v>
       </c>
-      <c r="C369" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>42404</v>
       </c>
       <c r="B370">
         <v>28</v>
       </c>
-      <c r="C370" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>42411</v>
       </c>
       <c r="B371">
         <v>16</v>
       </c>
-      <c r="C371" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>42418</v>
       </c>
       <c r="B372">
         <v>95</v>
       </c>
-      <c r="C372" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>42425</v>
       </c>
       <c r="B373">
         <v>47</v>
       </c>
-      <c r="C373" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>42433</v>
       </c>
       <c r="B374">
         <v>60</v>
       </c>
-      <c r="C374" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>42440</v>
       </c>
       <c r="B375">
         <v>22</v>
       </c>
-      <c r="C375" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>42447</v>
       </c>
       <c r="B376">
         <v>27</v>
       </c>
-      <c r="C376" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>42454</v>
       </c>
       <c r="B377">
         <v>43</v>
       </c>
-      <c r="C377" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>42461</v>
       </c>
       <c r="B378">
         <v>45</v>
       </c>
-      <c r="C378" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>42468</v>
       </c>
       <c r="B379">
         <v>71</v>
       </c>
-      <c r="C379" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>42475</v>
       </c>
       <c r="B380">
         <v>47</v>
       </c>
-      <c r="C380" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>42482</v>
       </c>
       <c r="B381">
         <v>37</v>
       </c>
-      <c r="C381" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>42489</v>
       </c>
       <c r="B382">
         <v>44</v>
       </c>
-      <c r="C382" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>42496</v>
       </c>
       <c r="B383">
         <v>55</v>
       </c>
-      <c r="C383" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>42503</v>
       </c>
       <c r="B384">
         <v>79</v>
       </c>
-      <c r="C384" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>42510</v>
       </c>
       <c r="B385">
         <v>50</v>
       </c>
-      <c r="C385" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>42517</v>
       </c>
       <c r="B386">
         <v>69</v>
       </c>
-      <c r="C386" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>42524</v>
       </c>
       <c r="B387">
         <v>80</v>
       </c>
-      <c r="C387" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>42531</v>
       </c>
       <c r="B388">
         <v>88</v>
       </c>
-      <c r="C388" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>42538</v>
       </c>
       <c r="B389">
         <v>96</v>
       </c>
-      <c r="C389" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>42545</v>
       </c>
       <c r="B390">
         <v>100</v>
       </c>
-      <c r="C390" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>42552</v>
       </c>
       <c r="B391">
         <v>204</v>
       </c>
-      <c r="C391" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>42559</v>
       </c>
       <c r="B392">
         <v>255</v>
       </c>
-      <c r="C392" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>42566</v>
       </c>
       <c r="B393">
         <v>193</v>
       </c>
-      <c r="C393" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>42573</v>
       </c>
       <c r="B394">
         <v>102</v>
       </c>
-      <c r="C394" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>42580</v>
       </c>
       <c r="B395">
         <v>145</v>
       </c>
-      <c r="C395" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>42587</v>
       </c>
       <c r="B396">
         <v>36</v>
       </c>
-      <c r="C396" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>42594</v>
       </c>
       <c r="B397">
         <v>37</v>
       </c>
-      <c r="C397" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>42601</v>
       </c>
       <c r="B398">
         <v>41</v>
       </c>
-      <c r="C398" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>42608</v>
       </c>
       <c r="B399">
         <v>136</v>
       </c>
-      <c r="C399" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>42615</v>
       </c>
       <c r="B400">
         <v>132</v>
       </c>
-      <c r="C400" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>42622</v>
       </c>
       <c r="B401">
         <v>85</v>
       </c>
-      <c r="C401" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>42629</v>
       </c>
       <c r="B402">
         <v>16</v>
       </c>
-      <c r="C402" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>42636</v>
       </c>
       <c r="B403">
         <v>19</v>
       </c>
-      <c r="C403" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>42643</v>
       </c>
       <c r="B404">
         <v>19</v>
       </c>
-      <c r="C404" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>42650</v>
       </c>
       <c r="B405">
         <v>33</v>
       </c>
-      <c r="C405" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>42657</v>
       </c>
       <c r="B406">
         <v>15</v>
       </c>
-      <c r="C406" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>42664</v>
       </c>
       <c r="B407">
         <v>26</v>
       </c>
-      <c r="C407" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>42671</v>
       </c>
       <c r="B408">
         <v>49</v>
       </c>
-      <c r="C408" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>42678</v>
       </c>
       <c r="B409">
         <v>70</v>
       </c>
-      <c r="C409" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>42685</v>
       </c>
       <c r="B410">
         <v>49</v>
       </c>
-      <c r="C410" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>42692</v>
       </c>
       <c r="B411">
         <v>41</v>
       </c>
-      <c r="C411" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>42699</v>
       </c>
       <c r="B412">
         <v>103</v>
       </c>
-      <c r="C412" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>42706</v>
       </c>
       <c r="B413">
         <v>43</v>
       </c>
-      <c r="C413" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>42713</v>
       </c>
       <c r="B414">
         <v>9</v>
       </c>
-      <c r="C414" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>42720</v>
       </c>
       <c r="B415">
         <v>7</v>
       </c>
-      <c r="C415" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>42727</v>
       </c>
       <c r="B416">
         <v>33</v>
       </c>
-      <c r="C416" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>42734</v>
       </c>
       <c r="B417">
         <v>4</v>
       </c>
-      <c r="C417" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>42742</v>
       </c>
       <c r="B418">
         <v>24</v>
       </c>
-      <c r="C418" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>42749</v>
       </c>
       <c r="B419">
         <v>4</v>
       </c>
-      <c r="C419" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>42756</v>
       </c>
       <c r="B420">
         <v>14</v>
       </c>
-      <c r="C420" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>42763</v>
       </c>
       <c r="B421">
         <v>15</v>
       </c>
-      <c r="C421" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>42770</v>
       </c>
       <c r="B422">
         <v>8</v>
       </c>
-      <c r="C422" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>42777</v>
       </c>
       <c r="B423">
         <v>13</v>
       </c>
-      <c r="C423" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>42784</v>
       </c>
       <c r="B424">
         <v>14</v>
       </c>
-      <c r="C424" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>42791</v>
       </c>
       <c r="B425">
         <v>0</v>
       </c>
-      <c r="C425" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>42798</v>
       </c>
       <c r="B426">
         <v>17</v>
       </c>
-      <c r="C426" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>42805</v>
       </c>
       <c r="B427">
         <v>16</v>
       </c>
-      <c r="C427" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>42812</v>
       </c>
       <c r="B428">
         <v>20</v>
       </c>
-      <c r="C428" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>42819</v>
       </c>
       <c r="B429">
         <v>2</v>
       </c>
-      <c r="C429" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>42826</v>
       </c>
       <c r="B430">
         <v>11</v>
       </c>
-      <c r="C430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>42833</v>
       </c>
       <c r="B431">
         <v>10</v>
       </c>
-      <c r="C431" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>42840</v>
       </c>
       <c r="B432">
         <v>26</v>
       </c>
-      <c r="C432" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>42847</v>
       </c>
       <c r="B433">
         <v>20</v>
       </c>
-      <c r="C433" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>42854</v>
       </c>
       <c r="B434">
         <v>17</v>
       </c>
-      <c r="C434" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>42861</v>
       </c>
       <c r="B435">
         <v>19</v>
       </c>
-      <c r="C435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>42868</v>
       </c>
       <c r="B436">
         <v>8</v>
       </c>
-      <c r="C436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>42875</v>
       </c>
       <c r="B437">
         <v>12</v>
       </c>
-      <c r="C437" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>42882</v>
       </c>
       <c r="B438">
         <v>7</v>
       </c>
-      <c r="C438" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>42889</v>
       </c>
       <c r="B439">
         <v>31</v>
       </c>
-      <c r="C439" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>42896</v>
       </c>
       <c r="B440">
         <v>50</v>
       </c>
-      <c r="C440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>42903</v>
       </c>
       <c r="B441">
         <v>74</v>
       </c>
-      <c r="C441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>42910</v>
       </c>
       <c r="B442">
         <v>139</v>
       </c>
-      <c r="C442" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>42917</v>
       </c>
       <c r="B443">
         <v>226</v>
       </c>
-      <c r="C443" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>42924</v>
       </c>
       <c r="B444">
         <v>177</v>
       </c>
-      <c r="C444" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>42931</v>
       </c>
       <c r="B445">
         <v>102</v>
       </c>
-      <c r="C445" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>42938</v>
       </c>
       <c r="B446">
         <v>71</v>
       </c>
-      <c r="C446" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>42945</v>
       </c>
       <c r="B447">
         <v>49</v>
       </c>
-      <c r="C447" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>42952</v>
       </c>
       <c r="B448">
         <v>20</v>
       </c>
-      <c r="C448" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>42959</v>
       </c>
       <c r="B449">
         <v>32</v>
       </c>
-      <c r="C449" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>42966</v>
       </c>
       <c r="B450">
         <v>27</v>
       </c>
-      <c r="C450" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>42973</v>
       </c>
       <c r="B451">
         <v>26</v>
       </c>
-      <c r="C451" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>42980</v>
       </c>
       <c r="B452">
         <v>14</v>
       </c>
-      <c r="C452" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>42987</v>
       </c>
       <c r="B453">
         <v>21</v>
       </c>
-      <c r="C453" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>42994</v>
       </c>
       <c r="B454">
         <v>14</v>
       </c>
-      <c r="C454" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>43001</v>
       </c>
       <c r="B455">
         <v>20</v>
       </c>
-      <c r="C455" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>43008</v>
       </c>
       <c r="B456">
         <v>19</v>
       </c>
-      <c r="C456" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>43015</v>
       </c>
       <c r="B457">
         <v>4</v>
       </c>
-      <c r="C457" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>43022</v>
       </c>
       <c r="B458">
         <v>123</v>
       </c>
-      <c r="C458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>43029</v>
       </c>
       <c r="B459">
         <v>68</v>
       </c>
-      <c r="C459" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>43036</v>
       </c>
       <c r="B460">
         <v>16</v>
       </c>
-      <c r="C460" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>43043</v>
       </c>
       <c r="B461">
         <v>28</v>
       </c>
-      <c r="C461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>43050</v>
       </c>
       <c r="B462">
         <v>28</v>
       </c>
-      <c r="C462" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>43057</v>
       </c>
       <c r="B463">
         <v>22</v>
       </c>
-      <c r="C463" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>43064</v>
       </c>
       <c r="B464">
         <v>8</v>
       </c>
-      <c r="C464" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>43071</v>
       </c>
       <c r="B465">
         <v>13</v>
       </c>
-      <c r="C465" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>43078</v>
       </c>
       <c r="B466">
         <v>8</v>
       </c>
-      <c r="C466" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>43085</v>
       </c>
       <c r="B467">
         <v>11</v>
       </c>
-      <c r="C467" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>43092</v>
       </c>
       <c r="B468">
         <v>16</v>
       </c>
-      <c r="C468" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>43099</v>
       </c>
       <c r="B469">
         <v>11</v>
       </c>
-      <c r="C469" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>43107</v>
       </c>
       <c r="B470">
         <v>97</v>
       </c>
-      <c r="C470" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>43114</v>
       </c>
       <c r="B471">
         <v>14</v>
       </c>
-      <c r="C471" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>43121</v>
       </c>
       <c r="B472">
         <v>32</v>
       </c>
-      <c r="C472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>43128</v>
       </c>
       <c r="B473">
         <v>10</v>
       </c>
-      <c r="C473" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>43135</v>
       </c>
       <c r="B474">
         <v>14</v>
       </c>
-      <c r="C474" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>43142</v>
       </c>
       <c r="B475">
         <v>20</v>
       </c>
-      <c r="C475" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>43149</v>
       </c>
       <c r="B476">
         <v>27</v>
       </c>
-      <c r="C476" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>43156</v>
       </c>
       <c r="B477">
         <v>49</v>
       </c>
-      <c r="C477" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>43163</v>
       </c>
       <c r="B478">
         <v>42</v>
       </c>
-      <c r="C478" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>43170</v>
       </c>
       <c r="B479">
         <v>65</v>
       </c>
-      <c r="C479" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>43177</v>
       </c>
       <c r="B480">
         <v>14</v>
       </c>
-      <c r="C480" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>43184</v>
       </c>
       <c r="B481">
         <v>69</v>
       </c>
-      <c r="C481" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>43191</v>
       </c>
       <c r="B482">
         <v>22</v>
       </c>
-      <c r="C482" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>43198</v>
       </c>
       <c r="B483">
         <v>35</v>
       </c>
-      <c r="C483" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>43205</v>
       </c>
       <c r="B484">
         <v>23</v>
       </c>
-      <c r="C484" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>43212</v>
       </c>
       <c r="B485">
         <v>37</v>
       </c>
-      <c r="C485" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>43219</v>
       </c>
       <c r="B486">
         <v>23</v>
       </c>
-      <c r="C486" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>43226</v>
       </c>
       <c r="B487">
         <v>44</v>
       </c>
-      <c r="C487" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>43233</v>
       </c>
       <c r="B488">
         <v>46</v>
       </c>
-      <c r="C488" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>43240</v>
       </c>
       <c r="B489">
         <v>63</v>
       </c>
-      <c r="C489" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>43247</v>
       </c>
       <c r="B490">
         <v>43</v>
       </c>
-      <c r="C490" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>43254</v>
       </c>
       <c r="B491">
         <v>75</v>
       </c>
-      <c r="C491" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>43261</v>
       </c>
       <c r="B492">
         <v>149</v>
       </c>
-      <c r="C492" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>43268</v>
       </c>
       <c r="B493">
         <v>238</v>
       </c>
-      <c r="C493" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>43275</v>
       </c>
       <c r="B494">
         <v>188</v>
       </c>
-      <c r="C494" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>43282</v>
       </c>
       <c r="B495">
         <v>161</v>
       </c>
-      <c r="C495" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>43289</v>
       </c>
       <c r="B496">
         <v>60</v>
       </c>
-      <c r="C496" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>43296</v>
       </c>
       <c r="B497">
         <v>64</v>
       </c>
-      <c r="C497" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>43303</v>
       </c>
       <c r="B498">
         <v>85</v>
       </c>
-      <c r="C498" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>43310</v>
       </c>
       <c r="B499">
         <v>51</v>
       </c>
-      <c r="C499" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>43317</v>
       </c>
       <c r="B500">
         <v>96</v>
       </c>
-      <c r="C500" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>43324</v>
       </c>
       <c r="B501">
         <v>23</v>
       </c>
-      <c r="C501" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>43331</v>
       </c>
       <c r="B502">
         <v>56</v>
       </c>
-      <c r="C502" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>43338</v>
       </c>
       <c r="B503">
         <v>124</v>
       </c>
-      <c r="C503" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>43345</v>
       </c>
       <c r="B504">
         <v>63</v>
       </c>
-      <c r="C504" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>43352</v>
       </c>
       <c r="B505">
         <v>43</v>
       </c>
-      <c r="C505" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>43359</v>
       </c>
       <c r="B506">
         <v>68</v>
       </c>
-      <c r="C506" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>43366</v>
       </c>
       <c r="B507">
         <v>63</v>
       </c>
-      <c r="C507" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>43373</v>
       </c>
       <c r="B508">
         <v>49</v>
       </c>
-      <c r="C508" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>43380</v>
       </c>
       <c r="B509">
         <v>42</v>
       </c>
-      <c r="C509" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>43387</v>
       </c>
       <c r="B510">
         <v>14</v>
       </c>
-      <c r="C510" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>43394</v>
       </c>
       <c r="B511">
         <v>9</v>
       </c>
-      <c r="C511" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>43401</v>
       </c>
       <c r="B512">
         <v>6</v>
       </c>
-      <c r="C512" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>43408</v>
       </c>
       <c r="B513">
         <v>25</v>
       </c>
-      <c r="C513" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>43415</v>
       </c>
       <c r="B514">
         <v>61</v>
       </c>
-      <c r="C514" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>43422</v>
       </c>
       <c r="B515">
         <v>52</v>
       </c>
-      <c r="C515" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>43429</v>
       </c>
       <c r="B516">
         <v>56</v>
       </c>
-      <c r="C516" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>43436</v>
       </c>
       <c r="B517">
         <v>12</v>
       </c>
-      <c r="C517" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>43443</v>
       </c>
       <c r="B518">
         <v>16</v>
       </c>
-      <c r="C518" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>43450</v>
       </c>
       <c r="B519">
         <v>20</v>
       </c>
-      <c r="C519" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>43457</v>
       </c>
       <c r="B520">
         <v>32</v>
       </c>
-      <c r="C520" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>43464</v>
       </c>
       <c r="B521">
         <v>78</v>
       </c>
-      <c r="C521" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>43472</v>
       </c>
       <c r="B522">
         <v>3</v>
       </c>
-      <c r="C522" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>43479</v>
       </c>
       <c r="B523">
         <v>37</v>
       </c>
-      <c r="C523" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>43486</v>
       </c>
       <c r="B524">
         <v>8</v>
       </c>
-      <c r="C524" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>43493</v>
       </c>
       <c r="B525">
         <v>22</v>
       </c>
-      <c r="C525" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>43500</v>
       </c>
       <c r="B526">
         <v>10</v>
       </c>
-      <c r="C526" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>43507</v>
       </c>
       <c r="B527">
         <v>8</v>
       </c>
-      <c r="C527" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>43514</v>
       </c>
       <c r="B528">
         <v>40</v>
       </c>
-      <c r="C528" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>43521</v>
       </c>
       <c r="B529">
         <v>20</v>
       </c>
-      <c r="C529" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>43528</v>
       </c>
       <c r="B530">
         <v>4</v>
       </c>
-      <c r="C530" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>43535</v>
       </c>
       <c r="B531">
         <v>10</v>
       </c>
-      <c r="C531" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>43542</v>
       </c>
       <c r="B532">
         <v>24</v>
       </c>
-      <c r="C532" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>43549</v>
       </c>
       <c r="B533">
         <v>26</v>
       </c>
-      <c r="C533" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>43556</v>
       </c>
       <c r="B534">
         <v>21</v>
       </c>
-      <c r="C534" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>43563</v>
       </c>
       <c r="B535">
         <v>17</v>
       </c>
-      <c r="C535" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>43570</v>
       </c>
       <c r="B536">
         <v>5</v>
       </c>
-      <c r="C536" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>43577</v>
       </c>
       <c r="B537">
         <v>38</v>
       </c>
-      <c r="C537" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>43584</v>
       </c>
       <c r="B538">
         <v>6</v>
       </c>
-      <c r="C538" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>43591</v>
       </c>
       <c r="B539">
         <v>7</v>
       </c>
-      <c r="C539" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>43598</v>
       </c>
       <c r="B540">
         <v>17</v>
       </c>
-      <c r="C540" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>43605</v>
       </c>
       <c r="B541">
         <v>26</v>
       </c>
-      <c r="C541" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>43612</v>
       </c>
       <c r="B542">
         <v>31</v>
       </c>
-      <c r="C542" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>43619</v>
       </c>
       <c r="B543">
         <v>16</v>
       </c>
-      <c r="C543" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>43626</v>
       </c>
       <c r="B544">
         <v>29</v>
       </c>
-      <c r="C544" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>43633</v>
       </c>
       <c r="B545">
         <v>28</v>
       </c>
-      <c r="C545" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>43640</v>
       </c>
       <c r="B546">
         <v>44</v>
       </c>
-      <c r="C546" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>43647</v>
       </c>
       <c r="B547">
         <v>173</v>
       </c>
-      <c r="C547" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>43654</v>
       </c>
       <c r="B548">
         <v>250</v>
       </c>
-      <c r="C548" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>43661</v>
       </c>
       <c r="B549">
         <v>191</v>
       </c>
-      <c r="C549" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>43668</v>
       </c>
       <c r="B550">
         <v>157</v>
       </c>
-      <c r="C550" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>43675</v>
       </c>
       <c r="B551">
         <v>128</v>
       </c>
-      <c r="C551" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>43682</v>
       </c>
       <c r="B552">
         <v>56</v>
       </c>
-      <c r="C552" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>43689</v>
       </c>
       <c r="B553">
         <v>50</v>
       </c>
-      <c r="C553" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>43696</v>
       </c>
       <c r="B554">
         <v>50</v>
       </c>
-      <c r="C554" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>43703</v>
       </c>
       <c r="B555">
         <v>29</v>
       </c>
-      <c r="C555" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>43710</v>
       </c>
       <c r="B556">
         <v>13</v>
       </c>
-      <c r="C556" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>43717</v>
       </c>
       <c r="B557">
         <v>7</v>
       </c>
-      <c r="C557" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>43724</v>
       </c>
       <c r="B558">
         <v>26</v>
       </c>
-      <c r="C558" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>43731</v>
       </c>
       <c r="B559">
         <v>25</v>
       </c>
-      <c r="C559" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>43738</v>
       </c>
       <c r="B560">
         <v>15</v>
       </c>
-      <c r="C560" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>43745</v>
       </c>
       <c r="B561">
         <v>4</v>
       </c>
-      <c r="C561" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>43752</v>
       </c>
       <c r="B562">
         <v>8</v>
       </c>
-      <c r="C562" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>43759</v>
       </c>
       <c r="B563">
         <v>3</v>
       </c>
-      <c r="C563" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>43766</v>
       </c>
       <c r="B564">
         <v>25</v>
       </c>
-      <c r="C564" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>43773</v>
       </c>
       <c r="B565">
         <v>14</v>
       </c>
-      <c r="C565" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>43780</v>
       </c>
       <c r="B566">
         <v>17</v>
       </c>
-      <c r="C566" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>43787</v>
       </c>
       <c r="B567">
         <v>4</v>
       </c>
-      <c r="C567" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>43794</v>
       </c>
       <c r="B568">
         <v>9</v>
       </c>
-      <c r="C568" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>43801</v>
       </c>
       <c r="B569">
         <v>42</v>
       </c>
-      <c r="C569" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>43808</v>
       </c>
       <c r="B570">
         <v>31</v>
       </c>
-      <c r="C570" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>43815</v>
       </c>
       <c r="B571">
         <v>33</v>
       </c>
-      <c r="C571" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>43822</v>
       </c>
       <c r="B572">
         <v>27</v>
       </c>
-      <c r="C572" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>43829</v>
       </c>
       <c r="B573">
         <v>26</v>
       </c>
-      <c r="C573" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>43837</v>
       </c>
       <c r="B574">
         <v>34</v>
       </c>
-      <c r="C574" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>43844</v>
       </c>
       <c r="B575">
         <v>22</v>
       </c>
-      <c r="C575" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>43851</v>
       </c>
       <c r="B576">
         <v>49</v>
       </c>
-      <c r="C576" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>43858</v>
       </c>
       <c r="B577">
         <v>10</v>
       </c>
-      <c r="C577" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>43865</v>
       </c>
       <c r="B578">
         <v>19</v>
       </c>
-      <c r="C578" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>43872</v>
       </c>
       <c r="B579">
         <v>60</v>
       </c>
-      <c r="C579" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>43879</v>
       </c>
       <c r="B580">
         <v>34</v>
       </c>
-      <c r="C580" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>43886</v>
       </c>
       <c r="B581">
         <v>91</v>
       </c>
-      <c r="C581" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>43894</v>
       </c>
       <c r="B582">
         <v>24</v>
       </c>
-      <c r="C582" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>43901</v>
       </c>
       <c r="B583">
         <v>9</v>
       </c>
-      <c r="C583" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>43908</v>
       </c>
       <c r="B584">
         <v>9</v>
       </c>
-      <c r="C584" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>43915</v>
       </c>
       <c r="B585">
         <v>35</v>
       </c>
-      <c r="C585" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>43922</v>
       </c>
       <c r="B586">
         <v>53</v>
       </c>
-      <c r="C586" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>43929</v>
       </c>
       <c r="B587">
         <v>19</v>
       </c>
-      <c r="C587" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>43936</v>
       </c>
       <c r="B588">
         <v>21</v>
       </c>
-      <c r="C588" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>43943</v>
       </c>
       <c r="B589">
         <v>23</v>
       </c>
-      <c r="C589" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>43950</v>
       </c>
       <c r="B590">
         <v>34</v>
       </c>
-      <c r="C590" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>43957</v>
       </c>
       <c r="B591">
         <v>41</v>
       </c>
-      <c r="C591" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>43964</v>
       </c>
       <c r="B592">
         <v>40</v>
       </c>
-      <c r="C592" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>43971</v>
       </c>
       <c r="B593">
         <v>30</v>
       </c>
-      <c r="C593" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>43978</v>
       </c>
       <c r="B594">
         <v>49</v>
       </c>
-      <c r="C594" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>43985</v>
       </c>
       <c r="B595">
         <v>78</v>
       </c>
-      <c r="C595" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>43992</v>
       </c>
       <c r="B596">
         <v>120</v>
       </c>
-      <c r="C596" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>43999</v>
       </c>
       <c r="B597">
         <v>120</v>
       </c>
-      <c r="C597" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44006</v>
       </c>
       <c r="B598">
         <v>151</v>
       </c>
-      <c r="C598" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44013</v>
       </c>
       <c r="B599">
         <v>176</v>
       </c>
-      <c r="C599" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44020</v>
       </c>
       <c r="B600">
         <v>270</v>
       </c>
-      <c r="C600" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44027</v>
       </c>
       <c r="B601">
         <v>206</v>
       </c>
-      <c r="C601" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44034</v>
       </c>
       <c r="B602">
         <v>248</v>
       </c>
-      <c r="C602" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44041</v>
       </c>
       <c r="B603">
         <v>132</v>
       </c>
-      <c r="C603" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44048</v>
       </c>
       <c r="B604">
         <v>139</v>
       </c>
-      <c r="C604" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44055</v>
       </c>
       <c r="B605">
         <v>87</v>
       </c>
-      <c r="C605" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44062</v>
       </c>
       <c r="B606">
         <v>67</v>
       </c>
-      <c r="C606" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44069</v>
       </c>
       <c r="B607">
         <v>32</v>
       </c>
-      <c r="C607" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44076</v>
       </c>
       <c r="B608">
         <v>45</v>
       </c>
-      <c r="C608" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44083</v>
       </c>
       <c r="B609">
         <v>46</v>
       </c>
-      <c r="C609" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44090</v>
       </c>
       <c r="B610">
         <v>11</v>
       </c>
-      <c r="C610" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44097</v>
       </c>
       <c r="B611">
         <v>21</v>
       </c>
-      <c r="C611" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44104</v>
       </c>
       <c r="B612">
         <v>27</v>
       </c>
-      <c r="C612" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44111</v>
       </c>
       <c r="B613">
         <v>24</v>
       </c>
-      <c r="C613" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44118</v>
       </c>
       <c r="B614">
         <v>41</v>
       </c>
-      <c r="C614" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44125</v>
       </c>
       <c r="B615">
         <v>36</v>
       </c>
-      <c r="C615" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44132</v>
       </c>
       <c r="B616">
         <v>19</v>
       </c>
-      <c r="C616" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44139</v>
       </c>
       <c r="B617">
         <v>24</v>
       </c>
-      <c r="C617" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44146</v>
       </c>
       <c r="B618">
         <v>73</v>
       </c>
-      <c r="C618" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44153</v>
       </c>
       <c r="B619">
         <v>51</v>
       </c>
-      <c r="C619" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44160</v>
       </c>
       <c r="B620">
         <v>23</v>
       </c>
-      <c r="C620" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44167</v>
       </c>
       <c r="B621">
         <v>78</v>
       </c>
-      <c r="C621" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44174</v>
       </c>
       <c r="B622">
         <v>11</v>
       </c>
-      <c r="C622" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44181</v>
       </c>
       <c r="B623">
         <v>8</v>
       </c>
-      <c r="C623" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44188</v>
       </c>
       <c r="B624">
         <v>34</v>
       </c>
-      <c r="C624" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44195</v>
       </c>
       <c r="B625">
         <v>20</v>
       </c>
-      <c r="C625" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44203</v>
       </c>
       <c r="B626">
         <v>40</v>
       </c>
-      <c r="C626" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44210</v>
       </c>
       <c r="B627">
         <v>6</v>
       </c>
-      <c r="C627" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44217</v>
       </c>
       <c r="B628">
         <v>18</v>
       </c>
-      <c r="C628" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44224</v>
       </c>
       <c r="B629">
         <v>8</v>
       </c>
-      <c r="C629" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44231</v>
       </c>
       <c r="B630">
         <v>41</v>
       </c>
-      <c r="C630" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44238</v>
       </c>
       <c r="B631">
         <v>69</v>
       </c>
-      <c r="C631" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44245</v>
       </c>
       <c r="B632">
         <v>13</v>
       </c>
-      <c r="C632" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44252</v>
       </c>
       <c r="B633">
         <v>10</v>
       </c>
-      <c r="C633" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44259</v>
       </c>
       <c r="B634">
         <v>14</v>
       </c>
-      <c r="C634" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44266</v>
       </c>
       <c r="B635">
         <v>30</v>
       </c>
-      <c r="C635" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44273</v>
       </c>
       <c r="B636">
         <v>21</v>
       </c>
-      <c r="C636" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44280</v>
       </c>
       <c r="B637">
         <v>29</v>
       </c>
-      <c r="C637" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44287</v>
       </c>
       <c r="B638">
         <v>92</v>
       </c>
-      <c r="C638" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44294</v>
       </c>
       <c r="B639">
         <v>15</v>
       </c>
-      <c r="C639" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44301</v>
       </c>
       <c r="B640">
         <v>27</v>
       </c>
-      <c r="C640" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44308</v>
       </c>
       <c r="B641">
         <v>88</v>
       </c>
-      <c r="C641" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44315</v>
       </c>
       <c r="B642">
         <v>16</v>
       </c>
-      <c r="C642" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44322</v>
       </c>
       <c r="B643">
         <v>35</v>
       </c>
-      <c r="C643" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44329</v>
       </c>
       <c r="B644">
         <v>55</v>
       </c>
-      <c r="C644" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44336</v>
       </c>
       <c r="B645">
         <v>15</v>
       </c>
-      <c r="C645" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44343</v>
       </c>
       <c r="B646">
         <v>40</v>
       </c>
-      <c r="C646" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44350</v>
       </c>
       <c r="B647">
         <v>44</v>
       </c>
-      <c r="C647" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44357</v>
       </c>
       <c r="B648">
         <v>30</v>
       </c>
-      <c r="C648" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44364</v>
       </c>
       <c r="B649">
         <v>102</v>
       </c>
-      <c r="C649" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44371</v>
       </c>
       <c r="B650">
         <v>190</v>
       </c>
-      <c r="C650" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44378</v>
       </c>
       <c r="B651">
         <v>216</v>
       </c>
-      <c r="C651" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44385</v>
       </c>
       <c r="B652">
         <v>172</v>
       </c>
-      <c r="C652" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44392</v>
       </c>
       <c r="B653">
         <v>143</v>
       </c>
-      <c r="C653" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44399</v>
       </c>
       <c r="B654">
         <v>148</v>
       </c>
-      <c r="C654" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44406</v>
       </c>
       <c r="B655">
         <v>88</v>
       </c>
-      <c r="C655" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44413</v>
       </c>
       <c r="B656">
         <v>66</v>
       </c>
-      <c r="C656" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44420</v>
       </c>
       <c r="B657">
         <v>97</v>
       </c>
-      <c r="C657" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44427</v>
       </c>
       <c r="B658">
         <v>83</v>
       </c>
-      <c r="C658" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44434</v>
       </c>
       <c r="B659">
         <v>10</v>
       </c>
-      <c r="C659" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44441</v>
       </c>
       <c r="B660">
         <v>247</v>
       </c>
-      <c r="C660" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44448</v>
       </c>
       <c r="B661">
         <v>103</v>
       </c>
-      <c r="C661" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44455</v>
       </c>
       <c r="B662">
         <v>71</v>
       </c>
-      <c r="C662" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44462</v>
       </c>
       <c r="B663">
         <v>22</v>
       </c>
-      <c r="C663" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44469</v>
       </c>
       <c r="B664">
         <v>35</v>
       </c>
-      <c r="C664" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44476</v>
       </c>
       <c r="B665">
         <v>50</v>
       </c>
-      <c r="C665" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44483</v>
       </c>
       <c r="B666">
         <v>92</v>
       </c>
-      <c r="C666" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44490</v>
       </c>
       <c r="B667">
         <v>12</v>
       </c>
-      <c r="C667" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44497</v>
       </c>
       <c r="B668">
         <v>43</v>
       </c>
-      <c r="C668" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44504</v>
       </c>
       <c r="B669">
         <v>17</v>
       </c>
-      <c r="C669" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44511</v>
       </c>
       <c r="B670">
         <v>49</v>
       </c>
-      <c r="C670" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44518</v>
       </c>
       <c r="B671">
         <v>36</v>
       </c>
-      <c r="C671" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44525</v>
       </c>
       <c r="B672">
         <v>60</v>
       </c>
-      <c r="C672" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44532</v>
       </c>
       <c r="B673">
         <v>55</v>
       </c>
-      <c r="C673" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44539</v>
       </c>
       <c r="B674">
         <v>72</v>
       </c>
-      <c r="C674" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44546</v>
       </c>
       <c r="B675">
         <v>40</v>
       </c>
-      <c r="C675" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44553</v>
       </c>
       <c r="B676">
         <v>76</v>
       </c>
-      <c r="C676" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44560</v>
       </c>
       <c r="B677">
         <v>48</v>
       </c>
-      <c r="C677" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44568</v>
       </c>
       <c r="B678">
         <v>21</v>
       </c>
-      <c r="C678" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44575</v>
       </c>
       <c r="B679">
         <v>25</v>
       </c>
-      <c r="C679" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44582</v>
       </c>
       <c r="B680">
         <v>10</v>
       </c>
-      <c r="C680" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44589</v>
       </c>
       <c r="B681">
         <v>5</v>
       </c>
-      <c r="C681" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44596</v>
       </c>
       <c r="B682">
         <v>7</v>
       </c>
-      <c r="C682" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44603</v>
       </c>
       <c r="B683">
         <v>16</v>
       </c>
-      <c r="C683" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44610</v>
       </c>
       <c r="B684">
         <v>22</v>
       </c>
-      <c r="C684" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44617</v>
       </c>
       <c r="B685">
         <v>13</v>
       </c>
-      <c r="C685" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44624</v>
       </c>
       <c r="B686">
         <v>30</v>
       </c>
-      <c r="C686" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44631</v>
       </c>
       <c r="B687">
         <v>16</v>
       </c>
-      <c r="C687" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44638</v>
       </c>
       <c r="B688">
         <v>28</v>
       </c>
-      <c r="C688" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44645</v>
       </c>
       <c r="B689">
         <v>55</v>
       </c>
-      <c r="C689" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44652</v>
       </c>
       <c r="B690">
         <v>32</v>
       </c>
-      <c r="C690" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44659</v>
       </c>
       <c r="B691">
         <v>29</v>
       </c>
-      <c r="C691" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44666</v>
       </c>
       <c r="B692">
         <v>27</v>
       </c>
-      <c r="C692" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44673</v>
       </c>
       <c r="B693">
         <v>35</v>
       </c>
-      <c r="C693" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44680</v>
       </c>
       <c r="B694">
         <v>24</v>
       </c>
-      <c r="C694" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>44687</v>
       </c>
       <c r="B695">
         <v>35</v>
       </c>
-      <c r="C695" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>44694</v>
       </c>
       <c r="B696">
         <v>33</v>
       </c>
-      <c r="C696" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>44701</v>
       </c>
       <c r="B697">
         <v>47</v>
       </c>
-      <c r="C697" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>44708</v>
       </c>
       <c r="B698">
         <v>20</v>
       </c>
-      <c r="C698" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>44715</v>
       </c>
       <c r="B699">
         <v>27</v>
       </c>
-      <c r="C699" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>44722</v>
       </c>
       <c r="B700">
         <v>24</v>
       </c>
-      <c r="C700" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44729</v>
       </c>
       <c r="B701">
         <v>41</v>
       </c>
-      <c r="C701" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44736</v>
       </c>
       <c r="B702">
         <v>74</v>
       </c>
-      <c r="C702" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44743</v>
       </c>
       <c r="B703">
         <v>185</v>
       </c>
-      <c r="C703" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44750</v>
       </c>
       <c r="B704">
         <v>163</v>
       </c>
-      <c r="C704" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44757</v>
       </c>
       <c r="B705">
         <v>130</v>
       </c>
-      <c r="C705" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44764</v>
       </c>
       <c r="B706">
         <v>250</v>
       </c>
-      <c r="C706" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44771</v>
       </c>
       <c r="B707">
         <v>165</v>
       </c>
-      <c r="C707" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44778</v>
       </c>
       <c r="B708">
         <v>88</v>
       </c>
-      <c r="C708" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44785</v>
       </c>
       <c r="B709">
         <v>92</v>
       </c>
-      <c r="C709" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44792</v>
       </c>
       <c r="B710">
         <v>47</v>
       </c>
-      <c r="C710" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44799</v>
       </c>
       <c r="B711">
         <v>83</v>
       </c>
-      <c r="C711" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44806</v>
       </c>
       <c r="B712">
         <v>33</v>
       </c>
-      <c r="C712" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>44813</v>
       </c>
       <c r="B713">
         <v>19</v>
       </c>
-      <c r="C713" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>44820</v>
       </c>
       <c r="B714">
         <v>16</v>
       </c>
-      <c r="C714" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>44827</v>
       </c>
       <c r="B715">
         <v>32</v>
       </c>
-      <c r="C715" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>44834</v>
       </c>
       <c r="B716">
         <v>42</v>
       </c>
-      <c r="C716" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>44841</v>
       </c>
       <c r="B717">
         <v>46</v>
       </c>
-      <c r="C717" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>44848</v>
       </c>
       <c r="B718">
         <v>64</v>
       </c>
-      <c r="C718" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>44855</v>
       </c>
       <c r="B719">
         <v>22</v>
       </c>
-      <c r="C719" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>44862</v>
       </c>
       <c r="B720">
         <v>17</v>
       </c>
-      <c r="C720" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>44869</v>
       </c>
       <c r="B721">
         <v>27</v>
       </c>
-      <c r="C721" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>44876</v>
       </c>
       <c r="B722">
         <v>24</v>
       </c>
-      <c r="C722" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>44883</v>
       </c>
       <c r="B723">
         <v>34</v>
       </c>
-      <c r="C723" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>44890</v>
       </c>
       <c r="B724">
         <v>41</v>
       </c>
-      <c r="C724" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>44897</v>
       </c>
       <c r="B725">
         <v>29</v>
       </c>
-      <c r="C725" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44904</v>
       </c>
       <c r="B726">
         <v>25</v>
       </c>
-      <c r="C726" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>44911</v>
       </c>
       <c r="B727">
         <v>32</v>
       </c>
-      <c r="C727" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>44918</v>
       </c>
       <c r="B728">
         <v>23</v>
       </c>
-      <c r="C728" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>44925</v>
       </c>
       <c r="B729">
         <v>44</v>
-      </c>
-      <c r="C729" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A730" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B730">
-        <f>SUM(B2:B729)</f>
-        <v>38905</v>
       </c>
     </row>
   </sheetData>
